--- a/zero-erp/src/main/resources/plugin/erp/oob/data/erp.directory.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/data/erp.directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F6357-845C-C643-81E2-93C05606E425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2696C-8E99-DD44-B0C2-26514B32AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75540" yWindow="-14600" windowWidth="38400" windowHeight="16940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="1400" windowWidth="69120" windowHeight="41960" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -150,11 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:cab/directory/department.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>io.horizon.spi.feature.DepartmentArbor</t>
+  </si>
+  <si>
+    <t>JSON:cab/directory/erp.dir.department.json</t>
   </si>
 </sst>
 </file>
@@ -695,7 +694,7 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -829,10 +828,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
